--- a/data/trans_orig/cron_mort_index-Clase-trans_orig.xlsx
+++ b/data/trans_orig/cron_mort_index-Clase-trans_orig.xlsx
@@ -724,52 +724,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,04; 0,08</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,02; 0,07</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 0,12</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 0,27</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,01; 0,04</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>0,03; 0,08</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 0,11</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 0,17</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 0,05</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>0,03; 0,06</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 0,12</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 0,27</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,01; 0,04</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 0,08</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0,04; 0,1</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 0,17</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 0,05</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 0,07</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,1</t>
+          <t>0,04; 0,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,05</t>
+          <t>0,01; 0,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,21</t>
+          <t>0,15; 0,21</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,3</t>
+          <t>0,07; 0,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,13</t>
+          <t>0,09; 0,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1174,22 +1174,22 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,08</t>
+          <t>0,05; 0,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,17</t>
+          <t>0,07; 0,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,08</t>
+          <t>0,06; 0,08</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,11</t>
+          <t>0,08; 0,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,1</t>
+          <t>0,04; 0,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,11</t>
+          <t>0,06; 0,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1309,17 +1309,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,15</t>
+          <t>0,1; 0,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,15</t>
+          <t>0,1; 0,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 0,5</t>
+          <t>0,27; 0,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1334,12 +1334,12 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,14</t>
+          <t>0,11; 0,15</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 0,43</t>
+          <t>0,27; 0,45</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,24</t>
+          <t>0,02; 0,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,14; 0,18</t>
+          <t>0,13; 0,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,27</t>
+          <t>0,2; 0,26</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,07</t>
+          <t>0,05; 0,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,25</t>
+          <t>0,18; 0,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,25</t>
+          <t>0,2; 0,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/cron_mort_index-Clase-trans_orig.xlsx
+++ b/data/trans_orig/cron_mort_index-Clase-trans_orig.xlsx
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
